--- a/Graph/Summary.xlsx
+++ b/Graph/Summary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POLITO\Architetture Dei Sistemi Di Elaborazione\Progetto Speciale\Reti Neurali\posit-nn-fault-injection\Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DCA82A-CD59-455F-B393-5559296FC1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B57357A-36EB-4957-B96C-9FD6B87CECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RIEPILOGO" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'POSIT32 0-&gt;27'!$A$1:$I$101</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">RIEPILOGO!$A$3:$A$30</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">RIEPILOGO!$D$3:$D$30</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">RIEPILOGO!$J$3:$J$30</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -635,10 +632,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -712,6 +709,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF75E6DA"/>
+      <color rgb="FF05445E"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -801,9 +802,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.10574837692722716"/>
-          <c:y val="7.1898148148148155E-2"/>
+          <c:y val="0.14362802750921955"/>
           <c:w val="0.84559076881558959"/>
-          <c:h val="0.61706802274715655"/>
+          <c:h val="0.54533805109804312"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1232,7 +1233,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1287,7 +1287,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>Titolo BITS</a:t>
+                  <a:t>BITS</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1463,6 +1463,530 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="75E6DA"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Livello convolutivo 0</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Posit 32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RIEPILOGO!$A$36:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RIEPILOGO!$D$36:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.69582031249999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.69687500000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.281796875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3765234375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE80-46BB-AA40-E902998BE8C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Float 32</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>RIEPILOGO!$A$36:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>RIEPILOGO!$J$36:$J$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.66957031249999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66957031249999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11589843750000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66886718749999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE80-46BB-AA40-E902998BE8C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="467265056"/>
+        <c:axId val="467263616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="467265056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>BITS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467263616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="467263616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ACCURACY</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="467265056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="100000">
@@ -1526,636 +2050,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mj-lt"/>
-                <a:ea typeface="+mj-ea"/>
-                <a:cs typeface="+mj-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Livello convolutivo 0</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mj-lt"/>
-              <a:ea typeface="+mj-ea"/>
-              <a:cs typeface="+mj-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Posit 32</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>RIEPILOGO!$A$36:$A$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RIEPILOGO!$D$36:$D$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.69582031249999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.69687500000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.281796875</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3765234375</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EE80-46BB-AA40-E902998BE8C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Float 32</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>RIEPILOGO!$A$36:$A$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>31</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>RIEPILOGO!$J$36:$J$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.66957031249999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66957031249999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.11589843750000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.66886718749999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EE80-46BB-AA40-E902998BE8C3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="467265056"/>
-        <c:axId val="467263616"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="467265056"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="51000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="467263616"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="467263616"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                  <a:alpha val="54000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="467265056"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:pattFill prst="ltDnDiag">
-          <a:fgClr>
-            <a:schemeClr val="dk1">
-              <a:lumMod val="15000"/>
-              <a:lumOff val="85000"/>
-            </a:schemeClr>
-          </a:fgClr>
-          <a:bgClr>
-            <a:schemeClr val="lt1"/>
-          </a:bgClr>
-        </a:pattFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="lt1"/>
+      <a:srgbClr val="75E6DA"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2207,19 +2102,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
@@ -2227,11 +2116,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Livello</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> convolutivo 1</a:t>
+              <a:t>Livello convolutivo 1</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2249,19 +2134,13 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="20" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
@@ -2284,19 +2163,13 @@
             <c:v>Posit 32</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2357,19 +2230,13 @@
             <c:v>Float 32</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -2431,6 +2298,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="35000"/>
+                  <a:lumOff val="65000"/>
+                  <a:alpha val="33000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
         <c:smooth val="0"/>
         <c:axId val="467269856"/>
         <c:axId val="467271296"/>
@@ -2443,6 +2325,31 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>BITS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2456,10 +2363,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2479,9 +2387,9 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:lumMod val="95000"/>
-                <a:alpha val="10000"/>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2493,10 +2401,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2521,21 +2430,38 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                  <a:alpha val="10000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ACCURACY</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2549,10 +2475,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1">
-                      <a:lumMod val="85000"/>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
@@ -2580,10 +2507,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="20" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2599,7 +2527,19 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
         <a:ln>
           <a:noFill/>
         </a:ln>
@@ -2607,7 +2547,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2623,8 +2563,9 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2648,28 +2589,17 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
+    <a:solidFill>
+      <a:srgbClr val="75E6DA"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -3350,7 +3280,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3361,7 +3291,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3384,9 +3314,9 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3415,8 +3345,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3450,33 +3380,47 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -3489,7 +3433,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="22225" cap="rnd">
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3510,9 +3454,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="phClr"/>
       </a:solidFill>
-      <a:ln w="15875">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3520,7 +3464,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3550,17 +3494,16 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="800" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -3576,14 +3519,13 @@
           <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3600,6 +3542,7 @@
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3614,14 +3557,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -3632,19 +3574,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -3654,15 +3583,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
-            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3674,15 +3601,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-            <a:alpha val="51000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3694,14 +3619,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3713,14 +3637,13 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3744,17 +3667,19 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
     </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
@@ -3764,11 +3689,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
@@ -3780,6 +3700,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -3790,14 +3721,14 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -3805,13 +3736,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="major">
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1">
         <a:lumMod val="50000"/>
         <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3823,7 +3754,7 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3853,14 +3784,13 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="dk1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3874,7 +3804,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -3883,59 +3813,48 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:pattFill prst="ltDnDiag">
-        <a:fgClr>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:fgClr>
-        <a:bgClr>
-          <a:schemeClr val="lt1"/>
-        </a:bgClr>
-      </a:pattFill>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="230">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="0" kern="1200" spc="20" baseline="0"/>
   </cs:categoryAxis>
-  <cs:chartArea>
+  <cs:chartArea mods="allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -3943,36 +3862,29 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:gradFill flip="none" rotWithShape="1">
-        <a:gsLst>
-          <a:gs pos="0">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="65000"/>
-              <a:lumOff val="35000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="100000">
-            <a:schemeClr val="dk1">
-              <a:lumMod val="85000"/>
-              <a:lumOff val="15000"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:path path="circle">
-          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-        </a:path>
-        <a:tileRect/>
-      </a:gradFill>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -3991,6 +3903,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -3998,36 +3918,60 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="2">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="1"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="22225" cap="rnd" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4039,15 +3983,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4055,15 +4002,15 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -4079,16 +4026,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4100,7 +4048,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4111,9 +4059,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4124,17 +4072,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+            <a:alpha val="33000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -4143,16 +4092,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:errorBar>
@@ -4161,7 +4110,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -4169,17 +4118,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="10000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -4188,14 +4136,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln>
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="5000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4206,17 +4154,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -4225,14 +4172,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4243,8 +4190,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4254,15 +4202,30 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="95000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
   </cs:plotArea>
   <cs:plotArea3D>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -4270,16 +4233,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -4292,17 +4256,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
+        <a:prstDash val="dash"/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -4311,19 +4275,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="95000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
-      <a:effectLst>
-        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-          <a:prstClr val="black">
-            <a:alpha val="40000"/>
-          </a:prstClr>
-        </a:outerShdw>
-      </a:effectLst>
-    </cs:defRPr>
+    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -4332,10 +4289,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4347,8 +4304,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -4358,7 +4316,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -4366,9 +4324,9 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-            <a:alpha val="54000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -4379,18 +4337,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1">
-        <a:lumMod val="85000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" spc="20" baseline="0"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -4402,14 +4361,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4436,16 +4395,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>747712</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>690562</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>112875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4473,15 +4432,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4808,25 +4767,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="F29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="G1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -5583,18 +5542,18 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="G34" s="1" t="s">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="G34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -5727,18 +5686,18 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="G51" s="1" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="G51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -5871,7 +5830,7 @@
       </c>
     </row>
     <row r="69" spans="12:16" x14ac:dyDescent="0.2">
-      <c r="L69" s="2"/>
+      <c r="L69" s="1"/>
     </row>
     <row r="70" spans="12:16" x14ac:dyDescent="0.2">
       <c r="P70" t="s">
@@ -7387,12 +7346,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -8928,12 +8887,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -10469,12 +10428,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -12010,12 +11969,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -13551,12 +13510,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -15092,12 +15051,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -16633,12 +16592,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -18174,12 +18133,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -19715,12 +19674,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -21256,12 +21215,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -24582,12 +24541,12 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="A104" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -28357,12 +28316,12 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="A104" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -30357,12 +30316,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -31898,12 +31857,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -33439,12 +33398,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -34980,12 +34939,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -36521,12 +36480,12 @@
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -38062,12 +38021,12 @@
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">

--- a/Graph/Summary.xlsx
+++ b/Graph/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\POLITO\Architetture Dei Sistemi Di Elaborazione\Progetto Speciale\Reti Neurali\posit-nn-fault-injection\Graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B57357A-36EB-4957-B96C-9FD6B87CECF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F310D58C-7E40-4A09-B5B6-97E70A4B4E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -828,6 +828,389 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0933701486636666E-2"/>
+                  <c:y val="-4.4961982743565353E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="20"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="21"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="22"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="23"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000019-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="25"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.2847732734042006E-2"/>
+                  <c:y val="-5.9149332468438731E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001A-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="26"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.8581714643438918E-2"/>
+                  <c:y val="6.853681505542189E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="27"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7312037369320457E-2"/>
+                  <c:y val="-5.4420215893480943E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>RIEPILOGO!$A$3:$A$30</c:f>
@@ -1039,6 +1422,108 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5345704775837226E-2"/>
+                  <c:y val="-4.4891232180632887E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001E-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="24"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.5053734378642295E-2"/>
+                  <c:y val="0.10171138164305894"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>0,6640</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000066-0A6B-4100-AB93-BD13A324E50D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>RIEPILOGO!$A$3:$A$30</c:f>
@@ -1372,6 +1857,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1640,6 +2138,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9461429501823216E-2"/>
+                  <c:y val="7.4278447738254372E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6AE2-463F-8462-91C512EEEB53}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>RIEPILOGO!$A$36:$A$39</c:f>
@@ -1707,6 +2285,108 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2724032836579851E-2"/>
+                  <c:y val="4.2113483465139545E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-DE03-4833-8B69-90B1F668BC98}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5036897967390634E-2"/>
+                  <c:y val="-4.845926032094066E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6AE2-463F-8462-91C512EEEB53}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>RIEPILOGO!$A$36:$A$39</c:f>
@@ -1757,8 +2437,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="b"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1896,6 +2577,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -2174,6 +2868,86 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8288744835608385E-2"/>
+                  <c:y val="6.8106804862227199E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-6BE8-48B9-AC95-38A657720DDD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>RIEPILOGO!$A$53:$A$56</c:f>
@@ -2241,6 +3015,130 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8395888013998275E-2"/>
+                  <c:y val="6.1739933812209817E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-6BE8-48B9-AC95-38A657720DDD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.8395888013998247E-2"/>
+                  <c:y val="6.8243995521927905E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-6BE8-48B9-AC95-38A657720DDD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.9970701274385507E-2"/>
+                  <c:y val="-6.1625060160287931E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-6BE8-48B9-AC95-38A657720DDD}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0.0000" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>RIEPILOGO!$A$53:$A$56</c:f>
@@ -2430,6 +3328,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -4360,15 +5271,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>727262</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>118222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
+      <xdr:colOff>298637</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4767,8 +5678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S61" sqref="S61"/>
+    <sheetView tabSelected="1" topLeftCell="E38" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
